--- a/SVR/Report/predict_data_analisis_New.xlsx
+++ b/SVR/Report/predict_data_analisis_New.xlsx
@@ -138,7 +138,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00000000000"/>
-    <numFmt numFmtId="174" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -631,10 +631,10 @@
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -7200,7 +7200,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -8752,16 +8752,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>575310</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>59055</xdr:rowOff>
+      <xdr:rowOff>177165</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>102870</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>567690</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>59055</xdr:rowOff>
+      <xdr:rowOff>177165</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -32909,7 +32909,7 @@
         <v>5</v>
       </c>
       <c r="B1026">
-        <f t="shared" ref="B1026:B1089" si="48">IF(C1026&lt;=0.1,1,IF(C1026&lt;=0.2,2,IF(C1026&lt;=0.3,3,IF(C1026&lt;=0.4,4,IF(C1026&lt;=0.5,5,IF(C1026&lt;=0.6,6,IF(C1026&lt;=0.7,7,IF(C1026&lt;=0.8,8,IF(C1026&lt;=0.9,9,10)))))))))</f>
+        <f t="shared" ref="B1026:B1043" si="48">IF(C1026&lt;=0.1,1,IF(C1026&lt;=0.2,2,IF(C1026&lt;=0.3,3,IF(C1026&lt;=0.4,4,IF(C1026&lt;=0.5,5,IF(C1026&lt;=0.6,6,IF(C1026&lt;=0.7,7,IF(C1026&lt;=0.8,8,IF(C1026&lt;=0.9,9,10)))))))))</f>
         <v>10</v>
       </c>
       <c r="C1026" s="8">
